--- a/final/top_rankings_glicko.xlsx
+++ b/final/top_rankings_glicko.xlsx
@@ -1,21 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FF86F-7CA2-DA4E-A84E-3D3275BD44C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1260" yWindow="920" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Jayson Shaw</t>
+  </si>
+  <si>
+    <t>Joshua Filler</t>
+  </si>
+  <si>
+    <t>Shane Van Boening</t>
+  </si>
+  <si>
+    <t>Niels Feijen</t>
+  </si>
+  <si>
+    <t>Chang Jung-Lin</t>
+  </si>
+  <si>
+    <t>Fedor Gorst</t>
+  </si>
+  <si>
+    <t>Ko Ping-Chung</t>
+  </si>
+  <si>
+    <t>Alex Kazakis</t>
+  </si>
+  <si>
+    <t>Alex Pagulayan</t>
+  </si>
+  <si>
+    <t>Ko Pin Yi</t>
+  </si>
+  <si>
+    <t>Glicko-2</t>
+  </si>
+  <si>
+    <t>BaselineElo</t>
+  </si>
+  <si>
+    <t>WPAratings</t>
+  </si>
+  <si>
+    <t>MOVElo</t>
+  </si>
+  <si>
+    <t>RacksElo</t>
+  </si>
+  <si>
+    <t>InitialRatingsElo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +135,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +221,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +273,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,123 +466,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jayson Shaw</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Joshua Filler</t>
-        </is>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shane Van Boening</t>
-        </is>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Niels Feijen</t>
-        </is>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chang Jung-Lin</t>
-        </is>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fedor Gorst</t>
-        </is>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ko Ping-Chung</t>
-        </is>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Alex Kazakis</t>
-        </is>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Alex Pagulayan</t>
-        </is>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ko Pin Yi</t>
-        </is>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>10</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/final/top_rankings_glicko.xlsx
+++ b/final/top_rankings_glicko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FF86F-7CA2-DA4E-A84E-3D3275BD44C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C21B69-862C-754B-AF78-DE4E673315B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="920" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="900" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Player</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>InitialRatingsElo</t>
+  </si>
+  <si>
+    <t>FargoRate</t>
   </si>
 </sst>
 </file>
@@ -467,20 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,22 +491,25 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,22 +517,25 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -540,16 +549,19 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -557,22 +569,25 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -580,22 +595,25 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>4</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -603,22 +621,25 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>5</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -629,19 +650,22 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -655,16 +679,19 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -672,22 +699,25 @@
         <v>9</v>
       </c>
       <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>8</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -698,19 +728,22 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -718,18 +751,21 @@
         <v>6</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8</v>
       </c>
     </row>

--- a/final/top_rankings_glicko.xlsx
+++ b/final/top_rankings_glicko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C21B69-862C-754B-AF78-DE4E673315B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A543F-765D-A742-A571-DB6CE270B152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="900" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,14 +473,14 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -494,19 +494,19 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -549,13 +549,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -598,16 +598,16 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -615,129 +615,129 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>6</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>8</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
       <c r="E9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>7</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -745,31 +745,32 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>